--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7A49CD-30E6-4624-86AA-20AF137ED513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DAB4D-3D9A-4467-9009-B1FC8566CDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="25">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -198,6 +198,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4271,12 +4274,13 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
@@ -4294,20 +4298,31 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCFDD3-ACD6-467E-AB8C-298BE5BEB450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E5F64B-5034-41BB-8B8A-F31F99F0BE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa1a" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="37">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -124,6 +124,30 @@
   <si>
     <t>##############</t>
   </si>
+  <si>
+    <t>Estes valores</t>
+  </si>
+  <si>
+    <t>estão bons???</t>
+  </si>
+  <si>
+    <t>0 - 0,5</t>
+  </si>
+  <si>
+    <t>0 - 1,5</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>0 - 0,6</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48915A02-5BCF-40D7-ADBB-E4C89EB67C48}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,6 +607,7 @@
     <col min="14" max="14" width="39.77734375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -610,11 +638,22 @@
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>180</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I2" s="3"/>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
       <c r="M2" s="13"/>
       <c r="N2" t="s">
         <v>26</v>
@@ -625,13 +664,22 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
       <c r="M3" s="14"/>
       <c r="N3" t="s">
         <v>27</v>
@@ -861,8 +909,12 @@
       <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
         <v>2</v>
@@ -873,9 +925,25 @@
       <c r="I14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="L14" s="1"/>
+      <c r="M14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -887,17 +955,41 @@
       <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="H15" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="1"/>
+      <c r="M15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -909,8 +1001,12 @@
       <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
         <v>5</v>
@@ -921,11 +1017,27 @@
       <c r="I16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
+      <c r="P16" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -936,8 +1048,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -948,8 +1063,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -960,8 +1078,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -972,8 +1093,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -984,8 +1108,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -996,8 +1123,11 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1008,8 +1138,11 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1020,8 +1153,11 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1032,8 +1168,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1044,8 +1183,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1056,8 +1198,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1068,8 +1213,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1080,8 +1228,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1092,8 +1243,11 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1104,8 +1258,11 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1116,8 +1273,11 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1128,8 +1288,11 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1140,8 +1303,11 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1152,8 +1318,11 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1164,8 +1333,11 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1176,8 +1348,11 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1188,8 +1363,11 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1200,8 +1378,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1212,8 +1393,11 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1224,8 +1408,11 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1236,8 +1423,11 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1248,8 +1438,11 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1260,8 +1453,11 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1272,8 +1468,11 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1284,8 +1483,11 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1296,8 +1498,11 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1308,8 +1513,11 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1320,8 +1528,11 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1332,8 +1543,11 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1344,8 +1558,11 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1356,8 +1573,11 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1368,8 +1588,11 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1380,8 +1603,11 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1392,8 +1618,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1404,8 +1633,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1416,8 +1648,11 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1428,8 +1663,11 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1440,8 +1678,11 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1452,8 +1693,11 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1464,8 +1708,11 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1476,8 +1723,11 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1488,8 +1738,11 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1500,8 +1753,11 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1512,8 +1768,11 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1524,8 +1783,11 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1536,8 +1798,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1548,8 +1813,11 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1560,8 +1828,11 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1572,8 +1843,11 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1584,8 +1858,11 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1596,8 +1873,11 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1608,8 +1888,11 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1620,8 +1903,11 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1632,8 +1918,11 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1644,8 +1933,11 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1656,8 +1948,11 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1668,8 +1963,11 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1680,8 +1978,11 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1692,8 +1993,11 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1704,8 +2008,11 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1716,8 +2023,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1728,8 +2038,11 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1740,8 +2053,11 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1752,8 +2068,11 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1764,8 +2083,11 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1776,8 +2098,11 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1788,8 +2113,11 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1800,8 +2128,11 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1812,8 +2143,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1824,8 +2158,11 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1836,8 +2173,11 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1848,8 +2188,11 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1860,8 +2203,11 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1872,8 +2218,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1884,8 +2233,11 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1896,8 +2248,11 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1908,8 +2263,11 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1920,8 +2278,11 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1932,8 +2293,11 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1944,8 +2308,11 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1956,8 +2323,11 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1968,8 +2338,11 @@
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1980,8 +2353,11 @@
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1992,8 +2368,11 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2004,8 +2383,11 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2016,8 +2398,11 @@
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2028,8 +2413,11 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2040,8 +2428,11 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2052,8 +2443,11 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2064,8 +2458,11 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2076,8 +2473,11 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2088,8 +2488,11 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2100,8 +2503,11 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2112,8 +2518,11 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2124,8 +2533,11 @@
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2136,8 +2548,11 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2148,8 +2563,11 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2160,8 +2578,11 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2172,8 +2593,11 @@
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2184,8 +2608,11 @@
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2196,8 +2623,11 @@
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2208,8 +2638,11 @@
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2220,8 +2653,11 @@
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2232,8 +2668,11 @@
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2244,8 +2683,11 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2256,8 +2698,11 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2268,8 +2713,11 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2280,8 +2728,11 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2292,8 +2743,11 @@
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2304,8 +2758,11 @@
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2316,8 +2773,11 @@
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2328,8 +2788,11 @@
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2340,8 +2803,11 @@
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2352,8 +2818,11 @@
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2364,8 +2833,11 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2376,8 +2848,11 @@
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2388,8 +2863,11 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2400,8 +2878,11 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2412,8 +2893,11 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2424,8 +2908,11 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2436,8 +2923,11 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2448,8 +2938,11 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2460,8 +2953,11 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2472,8 +2968,11 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2484,8 +2983,11 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2496,8 +2998,11 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2508,8 +3013,11 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2520,8 +3028,11 @@
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2532,8 +3043,11 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2544,8 +3058,11 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2556,8 +3073,11 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2568,8 +3088,11 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2580,8 +3103,11 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2592,8 +3118,11 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2604,8 +3133,11 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2616,8 +3148,11 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2628,8 +3163,11 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2640,8 +3178,11 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2652,8 +3193,11 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2664,8 +3208,11 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2676,8 +3223,11 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2688,8 +3238,11 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2700,8 +3253,11 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2712,8 +3268,11 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2724,8 +3283,11 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2736,8 +3298,11 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2748,8 +3313,11 @@
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2760,8 +3328,11 @@
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2772,8 +3343,11 @@
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2784,8 +3358,11 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2796,8 +3373,11 @@
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2808,8 +3388,11 @@
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2820,8 +3403,11 @@
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2832,8 +3418,11 @@
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2844,8 +3433,11 @@
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2856,8 +3448,11 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2868,8 +3463,11 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2880,8 +3478,11 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2892,8 +3493,11 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2904,8 +3508,11 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2916,8 +3523,11 @@
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2928,8 +3538,11 @@
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -2940,8 +3553,11 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -2952,8 +3568,11 @@
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -2964,8 +3583,11 @@
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -2976,8 +3598,11 @@
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -2988,8 +3613,11 @@
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3000,8 +3628,11 @@
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3012,8 +3643,11 @@
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3024,8 +3658,11 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3036,8 +3673,11 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3047,8 +3687,11 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3058,8 +3701,11 @@
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3069,8 +3715,11 @@
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3080,8 +3729,11 @@
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3091,8 +3743,11 @@
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3102,8 +3757,11 @@
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3113,8 +3771,11 @@
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3124,8 +3785,11 @@
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3135,8 +3799,11 @@
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3146,8 +3813,11 @@
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3157,8 +3827,11 @@
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3168,8 +3841,11 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3179,8 +3855,11 @@
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3190,8 +3869,11 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3201,8 +3883,11 @@
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3212,8 +3897,11 @@
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3223,8 +3911,11 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3235,7 +3926,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3246,7 +3937,7 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3257,7 +3948,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3268,7 +3959,7 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3279,7 +3970,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3290,7 +3981,7 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3301,7 +3992,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3312,7 +4003,7 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3323,7 +4014,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3334,7 +4025,7 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3345,7 +4036,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3356,7 +4047,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3367,7 +4058,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3378,7 +4069,7 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3910,7 +4601,7 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10605,8 +11296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A58DC73-9886-43BF-98AF-ED76B1F8B5DC}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205BDD34-033E-40E4-A51E-8B6DD3D79287}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FBEEA8-7DB5-4817-B574-F0DA4B7AF722}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-1296" windowWidth="23256" windowHeight="12576" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="46">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -146,14 +146,38 @@
     <t>0 - 0,6</t>
   </si>
   <si>
-    <t>Tocas em alguma parede?</t>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>weightBlock</t>
+  </si>
+  <si>
+    <t>weigthResource</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Range of sensors</t>
+  </si>
+  <si>
+    <t>Angle of sensors</t>
+  </si>
+  <si>
+    <t>0-0,5</t>
+  </si>
+  <si>
+    <t>Tocas em alguma parede(sem ser no fim)?</t>
+  </si>
+  <si>
+    <t>0-0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +193,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +256,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,10 +271,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,8 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48915A02-5BCF-40D7-ADBB-E4C89EB67C48}">
-  <dimension ref="A1:T274"/>
+  <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,20 +646,25 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,48 +674,54 @@
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
         <v>180</v>
       </c>
-      <c r="G2" s="3">
+      <c r="J2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3">
         <v>0.2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" t="s">
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -670,26 +729,29 @@
       <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3">
+      <c r="J3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="K3" s="3">
         <v>0.2</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" t="s">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -710,26 +772,32 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="4" t="s">
+      <c r="R5" s="1"/>
+      <c r="S5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F6" s="3"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -742,37 +810,55 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="T7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -785,20 +871,26 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -811,16 +903,22 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -833,3969 +931,6218 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="H13" s="18">
+        <v>90</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="L13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="M13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>5</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="19">
+        <v>3</v>
+      </c>
+      <c r="W13" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="H14" s="3">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14">
         <v>3</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="W14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2" t="s">
+      <c r="H15" s="3">
+        <v>90</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="R15" s="1"/>
+      <c r="S15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>5</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>90</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4</v>
+      </c>
+      <c r="H18" s="18">
+        <v>90</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>5</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="19">
+        <v>3</v>
+      </c>
+      <c r="W18" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>90</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>90</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="L20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="M20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="R20" s="1"/>
+      <c r="S20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18">
+        <v>90</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="L21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="M21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>5</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="19">
+        <v>3</v>
+      </c>
+      <c r="W21" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>90</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="J23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="J24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="3">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="J25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="3"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="3">
+        <v>3</v>
+      </c>
+      <c r="W25" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="2"/>
       <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="2"/>
       <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="2"/>
       <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="2"/>
       <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="2"/>
       <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="2"/>
       <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="J54" s="2"/>
       <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="2"/>
       <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="G57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="2"/>
       <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="G65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="2"/>
       <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="G66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="2"/>
       <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="G70" s="2"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="J70" s="2"/>
       <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="2"/>
       <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="G73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="2"/>
       <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="G74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="2"/>
       <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="G75" s="2"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="2"/>
       <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="G76" s="2"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="2"/>
       <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="G78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="2"/>
       <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="G80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="2"/>
       <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="G81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="G82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="G83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="2"/>
       <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="G86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="2"/>
       <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
-      <c r="G87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="G88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="G90" s="2"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="2"/>
       <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="G91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="G92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="2"/>
       <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="G94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="2"/>
       <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="G95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="2"/>
       <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="G96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="2"/>
       <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="G97" s="2"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="2"/>
       <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="G98" s="2"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="2"/>
       <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="G99" s="2"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="G100" s="2"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="2"/>
       <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="G101" s="2"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="G102" s="2"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="2"/>
       <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="G103" s="2"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="2"/>
       <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="G104" s="2"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="2"/>
       <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="G105" s="2"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="2"/>
       <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="G106" s="2"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="2"/>
       <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="G107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="G108" s="2"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="2"/>
       <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="G109" s="2"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="2"/>
       <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="G110" s="2"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="2"/>
       <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="G111" s="2"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="2"/>
       <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="G112" s="2"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="2"/>
       <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="G113" s="2"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="2"/>
       <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="G114" s="2"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="2"/>
       <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="G115" s="2"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="2"/>
       <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="G116" s="2"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="2"/>
       <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="G117" s="2"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="2"/>
       <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-      <c r="G118" s="2"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="J118" s="2"/>
       <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="G119" s="2"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="2"/>
       <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="G120" s="2"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="2"/>
       <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="G121" s="2"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="J121" s="2"/>
       <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="G122" s="2"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="2"/>
       <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-      <c r="G123" s="2"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="2"/>
       <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-      <c r="G124" s="2"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="2"/>
       <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="G125" s="2"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="J125" s="2"/>
       <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="G126" s="2"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="J126" s="2"/>
       <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-      <c r="G127" s="2"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="2"/>
       <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="G128" s="2"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="2"/>
       <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="G129" s="2"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="2"/>
       <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-      <c r="G130" s="2"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="2"/>
       <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-      <c r="G131" s="2"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="2"/>
       <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-      <c r="G132" s="2"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="2"/>
       <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-      <c r="G133" s="2"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="2"/>
       <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-      <c r="G134" s="2"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="2"/>
       <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="G135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="2"/>
       <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-      <c r="G136" s="2"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
       <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="2"/>
       <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-      <c r="G137" s="2"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="2"/>
       <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-      <c r="G138" s="2"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="2"/>
       <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="G139" s="2"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="2"/>
       <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-      <c r="G140" s="2"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="2"/>
       <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="G141" s="2"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="2"/>
       <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-      <c r="G142" s="2"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="2"/>
       <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="G143" s="2"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="J143" s="2"/>
       <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-      <c r="G144" s="2"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="J144" s="2"/>
       <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="G145" s="2"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="2"/>
       <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="G146" s="2"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="2"/>
       <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-      <c r="G147" s="2"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="2"/>
       <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="G148" s="2"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="J148" s="2"/>
       <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-      <c r="G149" s="2"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="J149" s="2"/>
       <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-      <c r="G150" s="2"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="2"/>
       <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="G151" s="2"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="2"/>
       <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-      <c r="G152" s="2"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="2"/>
       <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-      <c r="G153" s="2"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="J153" s="2"/>
       <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-      <c r="G154" s="2"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="2"/>
       <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-      <c r="G155" s="2"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="2"/>
       <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-      <c r="G156" s="2"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="2"/>
       <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-      <c r="G157" s="2"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="J157" s="2"/>
       <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-      <c r="G158" s="2"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="2"/>
       <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-      <c r="G159" s="2"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="2"/>
       <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-      <c r="G160" s="2"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="J160" s="2"/>
       <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="G161" s="2"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="J161" s="2"/>
       <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="G162" s="2"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
       <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="2"/>
       <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="G163" s="2"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="J163" s="2"/>
       <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="G164" s="2"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="2"/>
       <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-      <c r="G165" s="2"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
       <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="2"/>
       <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="G166" s="2"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
       <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="2"/>
       <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-      <c r="G167" s="2"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
       <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="2"/>
       <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-      <c r="G168" s="2"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
       <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="2"/>
       <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-      <c r="G169" s="2"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="2"/>
       <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-      <c r="G170" s="2"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="2"/>
       <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
       <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-      <c r="G171" s="2"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="2"/>
       <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="G172" s="2"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="J172" s="2"/>
       <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-      <c r="G173" s="2"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="2"/>
       <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-      <c r="G174" s="2"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
       <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="2"/>
       <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-      <c r="G175" s="2"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
       <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="J175" s="2"/>
       <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-      <c r="G176" s="2"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="J176" s="2"/>
       <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-      <c r="G177" s="2"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="J177" s="2"/>
       <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="G178" s="2"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="J178" s="2"/>
       <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
       <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-      <c r="G179" s="2"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="J179" s="2"/>
       <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3"/>
+      <c r="V179" s="3"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-      <c r="G180" s="2"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="J180" s="2"/>
       <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-      <c r="G181" s="2"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="J181" s="2"/>
       <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-      <c r="G182" s="2"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
       <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="J182" s="2"/>
       <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-      <c r="G183" s="2"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="J183" s="2"/>
       <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-      <c r="G184" s="2"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="J184" s="2"/>
       <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-      <c r="G185" s="2"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="2"/>
       <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-      <c r="G186" s="2"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="J186" s="2"/>
       <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-      <c r="G187" s="2"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="J187" s="2"/>
       <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-      <c r="G188" s="2"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
       <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="J188" s="2"/>
       <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-      <c r="G189" s="2"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="2"/>
       <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-      <c r="G190" s="2"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
       <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="J190" s="2"/>
       <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-      <c r="G191" s="2"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
       <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="J191" s="2"/>
       <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-      <c r="G192" s="2"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
       <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="2"/>
       <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="J193" s="2"/>
       <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="J194" s="2"/>
       <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
       <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="2"/>
       <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="2"/>
       <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="J197" s="2"/>
       <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="J198" s="2"/>
       <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
       <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="2"/>
       <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
       <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="J200" s="2"/>
       <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
       <c r="M200" s="3"/>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
       <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="J201" s="2"/>
       <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
       <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
       <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
       <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
       <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
       <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
       <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
       <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
       <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
       <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
       <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
       <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
       <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
       <c r="K210" s="3"/>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
       <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
       <c r="K211" s="3"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
       <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
       <c r="K212" s="3"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="S212" s="3"/>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
       <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
       <c r="K213" s="3"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
       <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
       <c r="K214" s="3"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
       <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
       <c r="K215" s="3"/>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
       <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
       <c r="K216" s="3"/>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
       <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
       <c r="K217" s="3"/>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
       <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
       <c r="K218" s="3"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
       <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
       <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
       <c r="K220" s="3"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
       <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
       <c r="K221" s="3"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
       <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
       <c r="K222" s="3"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
       <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
       <c r="K223" s="3"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
       <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
       <c r="K224" s="3"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
       <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
       <c r="K225" s="3"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
       <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
       <c r="K226" s="3"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
       <c r="K227" s="3"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
       <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
       <c r="K228" s="3"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
       <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
       <c r="K229" s="3"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
       <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
       <c r="K231" s="3"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
       <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
       <c r="K232" s="3"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
       <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
       <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
       <c r="K234" s="3"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
       <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
       <c r="K235" s="3"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
       <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
       <c r="K236" s="3"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
       <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
       <c r="K237" s="3"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
       <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
       <c r="K238" s="3"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
       <c r="K239" s="3"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
       <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
       <c r="K240" s="3"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
       <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
       <c r="K241" s="3"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
       <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
       <c r="K242" s="3"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
       <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
       <c r="K243" s="3"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
       <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
       <c r="K244" s="3"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
       <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
       <c r="K245" s="3"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
       <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
       <c r="K246" s="3"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
       <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
       <c r="K247" s="3"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
       <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
       <c r="K248" s="3"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
       <c r="K249" s="3"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
       <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
       <c r="K250" s="3"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
       <c r="K251" s="3"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
       <c r="K252" s="3"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
       <c r="K253" s="3"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
       <c r="K254" s="3"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
       <c r="K255" s="3"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
       <c r="K256" s="3"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
       <c r="K257" s="3"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
       <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
       <c r="K258" s="3"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
       <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
       <c r="K259" s="3"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
       <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
       <c r="K260" s="3"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
       <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
       <c r="K261" s="3"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
       <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
       <c r="K262" s="3"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="3"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
       <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
       <c r="K263" s="3"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
+      <c r="Q263" s="3"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
       <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
       <c r="K264" s="3"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
+      <c r="Q264" s="3"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
       <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
       <c r="K265" s="3"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
+      <c r="Q265" s="3"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
       <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
       <c r="K266" s="3"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
       <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
       <c r="K267" s="3"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
+      <c r="Q267" s="3"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
       <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
       <c r="K268" s="3"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+      <c r="P268" s="3"/>
+      <c r="Q268" s="3"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+      <c r="P270" s="3"/>
+      <c r="Q270" s="3"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="3"/>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FBEEA8-7DB5-4817-B574-F0DA4B7AF722}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FFE8D-C9AA-45EE-A7BB-9F9DE7B0A843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-1296" windowWidth="23256" windowHeight="12576" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FFE8D-C9AA-45EE-A7BB-9F9DE7B0A843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FBEEA8-7DB5-4817-B574-F0DA4B7AF722}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-1296" windowWidth="23256" windowHeight="12576" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336FF983-DC38-534B-971A-66885081286B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F79CB0-89FC-48F3-9FDB-F4FCAC62F279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa1a" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="120">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -378,6 +378,30 @@
   <si>
     <t xml:space="preserve">Tempo mínimo(sem tocar em nada): </t>
   </si>
+  <si>
+    <t>Tempo Médio (BlockDetector = Linear):</t>
+  </si>
+  <si>
+    <t>Tempo Médio (BlockDetector = Gaussiana):</t>
+  </si>
+  <si>
+    <t>Tempo Médio (BlockDetector = Neg Logaritmico):</t>
+  </si>
+  <si>
+    <t>Tempo Médio (ResourceDetector = Linear):</t>
+  </si>
+  <si>
+    <t>Tempo Médio (ResourceDetector = Gaussiana):</t>
+  </si>
+  <si>
+    <t>Tempo Médio (ResourceDetector = Neg Logaritmico):</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo Médio Total = </t>
+  </si>
 </sst>
 </file>
 
@@ -534,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,6 +657,10 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,32 +984,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48915A02-5BCF-40D7-ADBB-E4C89EB67C48}">
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F32"/>
+    <sheetView topLeftCell="V19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D42" sqref="A35:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="3.109375" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.6640625" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="50.5" customWidth="1"/>
+    <col min="24" max="24" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -2192,7 +2220,7 @@
       </c>
       <c r="X23" s="22"/>
     </row>
-    <row r="24" spans="1:24" ht="80">
+    <row r="24" spans="1:24" ht="72">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
@@ -2262,7 +2290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="96">
+    <row r="25" spans="1:24" ht="86.4">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2498,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="26">
+    <row r="30" spans="1:24" ht="25.8">
       <c r="A30" s="40" t="s">
         <v>110</v>
       </c>
@@ -2517,7 +2545,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="26">
+    <row r="32" spans="1:24" ht="25.8">
       <c r="A32" s="40" t="s">
         <v>111</v>
       </c>
@@ -2564,7 +2592,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" ht="26">
+    <row r="34" spans="1:22" ht="24.6">
       <c r="A34" s="40"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2587,12 +2615,17 @@
       <c r="V34" s="3"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="3">
+        <f>(W8+W9+W11)/3</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F35" s="45"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="2"/>
@@ -2609,12 +2642,17 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="3">
+        <f xml:space="preserve"> (W14 + W19 + W23) / 3</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F36" s="45"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="2"/>
@@ -2631,12 +2669,16 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="3">
+        <f>(W24 + W25 + W26) /3</f>
+        <v>8</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="2"/>
@@ -2653,12 +2695,17 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="3">
+        <f xml:space="preserve"> (W8 + W14 + W23 )/3</f>
+        <v>10</v>
+      </c>
+      <c r="F38" s="45"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="J38" s="2"/>
@@ -2675,12 +2722,17 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="3">
+        <f xml:space="preserve"> (W9 + W19 + W25) /3</f>
+        <v>8</v>
+      </c>
+      <c r="F39" s="45"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="2"/>
@@ -2697,12 +2749,17 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="3">
+        <f>(W11+W23+W26)/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F40" s="45"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="2"/>
@@ -2724,7 +2781,6 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="J41" s="2"/>
@@ -2741,12 +2797,17 @@
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="3">
+        <f xml:space="preserve"> (W8+W9+W11+W14+W19+W23+W24+W25+W26)/9</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F42" s="45"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="J42" s="2"/>
@@ -7685,27 +7746,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23F7D2-EBE1-4007-8C0F-8BEE0171E58C}">
   <dimension ref="A1:AD291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="37.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="159.33203125" customWidth="1"/>
   </cols>
@@ -8507,9 +8568,6 @@
       <c r="W16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="X16" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
@@ -8517,7 +8575,7 @@
       <c r="AC16" s="22"/>
       <c r="AD16" s="22"/>
     </row>
-    <row r="17" spans="1:24" ht="64">
+    <row r="17" spans="1:24">
       <c r="A17" s="10"/>
       <c r="B17" s="3">
         <v>0.5</v>
@@ -8579,9 +8637,6 @@
       <c r="W17" s="17">
         <v>19</v>
       </c>
-      <c r="X17" s="23" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="10"/>
@@ -8645,9 +8700,6 @@
       <c r="W18" s="17">
         <v>15</v>
       </c>
-      <c r="X18" s="22" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="10"/>
@@ -9491,9 +9543,11 @@
       <c r="W31" s="3">
         <v>11</v>
       </c>
-      <c r="X31" s="22"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="X31" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="57.6">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -9559,7 +9613,9 @@
       <c r="W32" s="3">
         <v>16</v>
       </c>
-      <c r="X32" s="22"/>
+      <c r="X32" s="23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="11" t="s">
@@ -9627,7 +9683,9 @@
       <c r="W33" s="3">
         <v>11</v>
       </c>
-      <c r="X33" s="22"/>
+      <c r="X33" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="2"/>
@@ -9685,7 +9743,7 @@
       <c r="N36" s="3"/>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" spans="1:24" ht="26">
+    <row r="37" spans="1:24" ht="25.8">
       <c r="A37" s="40" t="s">
         <v>110</v>
       </c>
@@ -9720,7 +9778,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="26">
+    <row r="39" spans="1:24" ht="25.8">
       <c r="A39" s="40" t="s">
         <v>111</v>
       </c>
@@ -9756,11 +9814,16 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <f>(W9 + W10 + W12)/3</f>
+        <v>11</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -9772,11 +9835,16 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <f xml:space="preserve"> (W21 + W26 + W30)/3</f>
+        <v>16.666666666666668</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -9788,11 +9856,16 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3">
+        <f>W33</f>
+        <v>11</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -9800,11 +9873,16 @@
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <f>(W9 + W21)/2</f>
+        <v>13.5</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -9812,11 +9890,16 @@
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3">
+        <f>(W10+W26)/2</f>
+        <v>14</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -9824,11 +9907,16 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3">
+        <f>(W12 + W30 + W33)/3</f>
+        <v>13</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -9848,11 +9936,16 @@
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3">
+        <f xml:space="preserve"> (W9+W10+W12+W21+W26+W30+W33)/7</f>
+        <v>13.428571428571429</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -12664,28 +12757,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2B7CF6-F505-4CB8-BD1F-C01EE61B21AB}">
   <dimension ref="A1:U274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="158.5" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="158.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
     <col min="17" max="17" width="37.6640625" customWidth="1"/>
-    <col min="18" max="18" width="37.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" customWidth="1"/>
+    <col min="18" max="18" width="37.77734375" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -13079,7 +13172,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="26">
+    <row r="21" spans="1:13" ht="25.8">
       <c r="A21" s="40" t="s">
         <v>110</v>
       </c>
@@ -13111,7 +13204,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="26">
+    <row r="23" spans="1:13" ht="25.8">
       <c r="A23" s="40" t="s">
         <v>111</v>
       </c>
@@ -16035,27 +16128,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE4904D-A21F-43E7-AB1D-D8515408F75D}">
   <dimension ref="A1:X284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24:X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="37.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
     <col min="24" max="24" width="78" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16811,9 +16904,6 @@
       <c r="W16" s="3">
         <v>32</v>
       </c>
-      <c r="X16" s="22" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="10" t="s">
@@ -16880,9 +16970,6 @@
       </c>
       <c r="W17" s="3">
         <v>34</v>
-      </c>
-      <c r="X17" s="22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -16947,9 +17034,6 @@
       <c r="W18" s="3">
         <v>24</v>
       </c>
-      <c r="X18" s="22" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="10"/>
@@ -17341,7 +17425,9 @@
       <c r="W24" s="3">
         <v>31</v>
       </c>
-      <c r="X24" s="22"/>
+      <c r="X24" s="22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="11" t="s">
@@ -17409,7 +17495,9 @@
       <c r="W25" s="3">
         <v>41</v>
       </c>
-      <c r="X25" s="22"/>
+      <c r="X25" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="11" t="s">
@@ -17477,7 +17565,9 @@
       <c r="W26" s="3">
         <v>35</v>
       </c>
-      <c r="X26" s="22"/>
+      <c r="X26" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="2"/>
@@ -17540,7 +17630,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="26">
+    <row r="30" spans="1:24" ht="25.8">
       <c r="A30" s="42" t="s">
         <v>110</v>
       </c>
@@ -17578,7 +17668,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="26">
+    <row r="32" spans="1:24" ht="25.8">
       <c r="A32" s="42" t="s">
         <v>111</v>
       </c>
@@ -17615,11 +17705,16 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3">
+        <f>(W8+W10+W12)/3</f>
+        <v>35</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
@@ -17631,11 +17726,16 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <f>(W16+W17+W23)/3</f>
+        <v>30.333333333333332</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
@@ -17647,11 +17747,16 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <f>(W24+W25+W26)/3</f>
+        <v>35.666666666666664</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -17659,11 +17764,16 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3">
+        <f>(W8+W16+W24)/3</f>
+        <v>34</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -17671,11 +17781,16 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <f>(W10+W17+W25)/3</f>
+        <v>36</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -17683,11 +17798,16 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3">
+        <f>(W12+W23+W26)/3</f>
+        <v>31</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -17707,11 +17827,16 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3">
+        <f>(W8+W10+W12+W16+W17+W23+W24+W25+W26)/9</f>
+        <v>33.666666666666664</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -20523,26 +20648,26 @@
   <dimension ref="A1:AC278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.109375" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="21" max="21" width="37.77734375" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -21780,7 +21905,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="26">
+    <row r="27" spans="1:29" ht="25.8">
       <c r="A27" s="42" t="s">
         <v>110</v>
       </c>
@@ -21819,7 +21944,7 @@
       <c r="N28" s="3"/>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" spans="1:29" ht="26">
+    <row r="29" spans="1:29" ht="25.8">
       <c r="A29" s="42" t="s">
         <v>111</v>
       </c>
@@ -21852,11 +21977,16 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:29">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="45">
+        <f xml:space="preserve"> (W8 + W10 + W12)/3</f>
+        <v>3.9120370370370375E-2</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -21864,11 +21994,16 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="45">
+        <f>(W14 + W15 + W17) / 3</f>
+        <v>3.2638888888888891E-2</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -21876,11 +22011,15 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="46" t="s">
+        <v>118</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -21888,11 +22027,16 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="45">
+        <f>(W8 + W14)/2</f>
+        <v>4.3055555555555555E-2</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -21900,11 +22044,16 @@
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="45">
+        <f>(W10+W15)/2</f>
+        <v>3.229166666666667E-2</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -21912,11 +22061,16 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="45">
+        <f>(W12+W17)/2</f>
+        <v>3.229166666666667E-2</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -21928,7 +22082,6 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -21936,11 +22089,16 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="E38" s="45">
+        <f>(W8 + W10 + W12  + W14 + W15 + W17)/6</f>
+        <v>3.5879629629629629E-2</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F79CB0-89FC-48F3-9FDB-F4FCAC62F279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234A97F-1B68-6A4D-BE3F-1E45FD9E6EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa1a" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="121">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -358,9 +358,6 @@
     <t>o que torna difícil que consiga parar por completo antes de cair para o abismo. Agora caso, limitemos que a velocidade máxima seja muito pequena aí consegue parar.</t>
   </si>
   <si>
-    <t>Não encontrei nenhuma configuração que funciona-se com uma função logaritmica para os dois sensores.</t>
-  </si>
-  <si>
     <t>5/9</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
   </si>
   <si>
     <t xml:space="preserve">Número de testes: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo mínimo(sem tocar em nada): </t>
   </si>
   <si>
     <t>Tempo Médio (BlockDetector = Linear):</t>
@@ -400,14 +394,23 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempo Médio Total = </t>
+    <t xml:space="preserve">Tempo Médio Total: </t>
+  </si>
+  <si>
+    <t>Tempo Médio Total:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo mínimo (sem tocar em nada): </t>
+  </si>
+  <si>
+    <t>Não foi encontrada nenhuma configuração que funcionase com uma função logaritmica para os dois sensores.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +476,14 @@
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,9 +669,13 @@
     <xf numFmtId="20" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,32 +999,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48915A02-5BCF-40D7-ADBB-E4C89EB67C48}">
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView topLeftCell="V19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="A35:D42"/>
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.44140625" customWidth="1"/>
-    <col min="18" max="18" width="3.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="39.6640625" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="50.44140625" customWidth="1"/>
+    <col min="24" max="24" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -2220,7 +2235,7 @@
       </c>
       <c r="X23" s="22"/>
     </row>
-    <row r="24" spans="1:24" ht="72">
+    <row r="24" spans="1:24" ht="80">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="86.4">
+    <row r="25" spans="1:24" ht="96">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
@@ -2498,18 +2513,17 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="25.8">
+    <row r="30" spans="1:24" ht="26">
       <c r="A30" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="41">
+      <c r="G30" s="41">
         <f>COUNT(W8:W26)</f>
         <v>19</v>
       </c>
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
@@ -2529,7 +2543,6 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="J31" s="2"/>
@@ -2545,17 +2558,16 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="25.8">
+    <row r="32" spans="1:24" ht="26">
       <c r="A32" s="40" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="41">
+      <c r="G32" s="41">
         <v>6</v>
       </c>
-      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
@@ -2570,14 +2582,17 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+    <row r="33" spans="1:22" ht="26">
+      <c r="A33" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="G33" s="41">
+        <f xml:space="preserve"> (W8+W9+W11+W14+W19+W23+W24+W25+W26)/9</f>
+        <v>8.6666666666666661</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -2592,13 +2607,12 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" ht="24.6">
+    <row r="34" spans="1:22" ht="26">
       <c r="A34" s="40"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="2"/>
@@ -2614,19 +2628,17 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
+    <row r="35" spans="1:22" ht="26">
+      <c r="A35" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="G35" s="41">
         <f>(W8+W9+W11)/3</f>
         <v>10.333333333333334</v>
       </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
@@ -2641,19 +2653,17 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
+    <row r="36" spans="1:22" ht="26">
+      <c r="A36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="G36" s="41">
         <f xml:space="preserve"> (W14 + W19 + W23) / 3</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
@@ -2668,18 +2678,17 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
+    <row r="37" spans="1:22" ht="26">
+      <c r="A37" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="G37" s="41">
         <f>(W24 + W25 + W26) /3</f>
         <v>8</v>
       </c>
-      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
@@ -2694,19 +2703,17 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
+    <row r="38" spans="1:22" ht="26">
+      <c r="A38" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="G38" s="41">
         <f xml:space="preserve"> (W8 + W14 + W23 )/3</f>
         <v>10</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
@@ -2721,19 +2728,17 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
+    <row r="39" spans="1:22" ht="26">
+      <c r="A39" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="G39" s="41">
         <f xml:space="preserve"> (W9 + W19 + W25) /3</f>
         <v>8</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
@@ -2748,19 +2753,17 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
+    <row r="40" spans="1:22" ht="26">
+      <c r="A40" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="G40" s="41">
         <f>(W11+W23+W26)/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
@@ -2775,13 +2778,12 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="G41" s="3"/>
+    <row r="41" spans="1:22" ht="26">
+      <c r="A41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="3"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
@@ -2797,18 +2799,6 @@
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <f xml:space="preserve"> (W8+W9+W11+W14+W19+W23+W24+W25+W26)/9</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
@@ -2823,12 +2813,12 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+    <row r="43" spans="1:22" ht="26">
+      <c r="A43" s="45"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -7744,29 +7734,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23F7D2-EBE1-4007-8C0F-8BEE0171E58C}">
-  <dimension ref="A1:AD291"/>
+  <dimension ref="A1:AD292"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="21" max="21" width="37.83203125" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="159.33203125" customWidth="1"/>
   </cols>
@@ -8563,7 +8553,7 @@
         <v>26</v>
       </c>
       <c r="V16" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>75</v>
@@ -9547,7 +9537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="57.6">
+    <row r="32" spans="1:24" ht="64">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -9743,18 +9733,17 @@
       <c r="N36" s="3"/>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" spans="1:24" ht="25.8">
+    <row r="37" spans="1:24" ht="26">
       <c r="A37" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="41">
+      <c r="G37" s="41">
         <f>COUNT(W8:W33)</f>
         <v>25</v>
       </c>
-      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="2"/>
@@ -9768,8 +9757,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="2"/>
@@ -9778,17 +9766,16 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="25.8">
+    <row r="39" spans="1:24" ht="26">
       <c r="A39" s="40" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="41">
+      <c r="G39" s="41">
         <v>9</v>
       </c>
-      <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="2"/>
@@ -9797,14 +9784,18 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+    <row r="40" spans="1:24" ht="26">
+      <c r="A40" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="41">
+        <f xml:space="preserve"> (W9+W10+W12+W21+W26+W30+W33)/7</f>
+        <v>13.428571428571429</v>
+      </c>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="2"/>
@@ -9813,19 +9804,13 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <f>(W9 + W10 + W12)/3</f>
-        <v>11</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+    <row r="41" spans="1:24" ht="26">
+      <c r="A41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="2"/>
@@ -9834,19 +9819,18 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <f xml:space="preserve"> (W21 + W26 + W30)/3</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+    <row r="42" spans="1:24" ht="26">
+      <c r="A42" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="41">
+        <f>(W9 + W10 + W12)/3</f>
+        <v>11</v>
+      </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="2"/>
@@ -9855,33 +9839,37 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3">
-        <f>W33</f>
-        <v>11</v>
-      </c>
+    <row r="43" spans="1:24" ht="26">
+      <c r="A43" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="41">
+        <f xml:space="preserve"> (W21 + W26 + W30)/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:24">
-      <c r="A44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3">
-        <f>(W9 + W21)/2</f>
-        <v>13.5</v>
+    <row r="44" spans="1:24" ht="26">
+      <c r="A44" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="41">
+        <f>W33</f>
+        <v>11</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
@@ -9889,16 +9877,17 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:24">
-      <c r="A45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
-        <f>(W10+W26)/2</f>
-        <v>14</v>
+    <row r="45" spans="1:24" ht="26">
+      <c r="A45" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="41">
+        <f>(W9 + W21)/2</f>
+        <v>13.5</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
@@ -9906,16 +9895,17 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:24">
-      <c r="A46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
-        <f>(W12 + W30 + W33)/3</f>
-        <v>13</v>
+    <row r="46" spans="1:24" ht="26">
+      <c r="A46" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="41">
+        <f>(W10+W26)/2</f>
+        <v>14</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
@@ -9923,29 +9913,31 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:24">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+    <row r="47" spans="1:24" ht="26">
+      <c r="A47" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="41">
+        <f>(W12 + W30 + W33)/3</f>
+        <v>13</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:24">
-      <c r="A48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <f xml:space="preserve"> (W9+W10+W12+W21+W26+W30+W33)/7</f>
-        <v>13.428571428571429</v>
-      </c>
+    <row r="48" spans="1:24" ht="26">
+      <c r="A48" s="45"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="41"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -9953,11 +9945,6 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -11890,6 +11877,7 @@
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
+      <c r="J210" s="2"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -12726,6 +12714,10 @@
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="2"/>
@@ -12736,6 +12728,10 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="2"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="2"/>
@@ -12745,6 +12741,9 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12757,28 +12756,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2B7CF6-F505-4CB8-BD1F-C01EE61B21AB}">
   <dimension ref="A1:U274"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="158.44140625" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="158.5" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
     <col min="17" max="17" width="37.6640625" customWidth="1"/>
-    <col min="18" max="18" width="37.77734375" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="37.83203125" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -13172,9 +13171,9 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="25.8">
+    <row r="21" spans="1:13" ht="26">
       <c r="A21" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -13204,9 +13203,9 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="25.8">
+    <row r="23" spans="1:13" ht="26">
       <c r="A23" s="40" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -16126,29 +16125,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE4904D-A21F-43E7-AB1D-D8515408F75D}">
-  <dimension ref="A1:X284"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24:X26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="21" max="21" width="37.83203125" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
     <col min="24" max="24" width="78" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16707,7 +16706,7 @@
         <v>25</v>
       </c>
       <c r="V13" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W13" s="3">
         <v>111</v>
@@ -17160,7 +17159,7 @@
         <v>25</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W20" s="3">
         <v>16</v>
@@ -17630,19 +17629,18 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="25.8">
+    <row r="30" spans="1:24" ht="26">
       <c r="A30" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="29"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="43">
+      <c r="G30" s="43">
         <f>COUNT(W8:W26)</f>
         <v>19</v>
       </c>
-      <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="2"/>
@@ -17652,50 +17650,52 @@
       <c r="N30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="26"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="1:24" ht="26">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="29"/>
       <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="25.8">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="26">
       <c r="A32" s="42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="43">
+      <c r="G32" s="43">
         <v>25</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+    <row r="33" spans="1:14" ht="26">
+      <c r="A33" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="G33" s="41">
+        <f>(W8+W10+W12+W16+W17+W23+W24+W25+W26)/9</f>
+        <v>33.666666666666664</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="2"/>
@@ -17705,17 +17705,11 @@
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3">
-        <f>(W8+W10+W12)/3</f>
-        <v>35</v>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="E34" s="3"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
@@ -17725,19 +17719,17 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <f>(W16+W17+W23)/3</f>
-        <v>30.333333333333332</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+    <row r="35" spans="1:14" ht="26">
+      <c r="A35" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="G35" s="41">
+        <f>(W8+W10+W12)/3</f>
+        <v>35</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="2"/>
@@ -17746,33 +17738,35 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <f>(W24+W25+W26)/3</f>
-        <v>35.666666666666664</v>
-      </c>
+    <row r="36" spans="1:14" ht="26">
+      <c r="A36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="G36" s="41">
+        <f>(W16+W17+W23)/3</f>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3">
-        <f>(W8+W16+W24)/3</f>
-        <v>34</v>
+    <row r="37" spans="1:14" ht="26">
+      <c r="A37" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="G37" s="41">
+        <f>(W24+W25+W26)/3</f>
+        <v>35.666666666666664</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
@@ -17780,16 +17774,16 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <f>(W10+W17+W25)/3</f>
-        <v>36</v>
+    <row r="38" spans="1:14" ht="26">
+      <c r="A38" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="G38" s="41">
+        <f>(W8+W16+W24)/3</f>
+        <v>34</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
@@ -17797,16 +17791,16 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <f>(W12+W23+W26)/3</f>
-        <v>31</v>
+    <row r="39" spans="1:14" ht="26">
+      <c r="A39" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="G39" s="41">
+        <f>(W10+W17+W25)/3</f>
+        <v>36</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
@@ -17814,29 +17808,29 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+    <row r="40" spans="1:14" ht="26">
+      <c r="A40" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="G40" s="41">
+        <f>(W12+W23+W26)/3</f>
+        <v>31</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <f>(W8+W10+W12+W16+W17+W23+W24+W25+W26)/9</f>
-        <v>33.666666666666664</v>
-      </c>
+    <row r="41" spans="1:14" ht="26">
+      <c r="A41" s="45"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="G41" s="41"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -17844,11 +17838,6 @@
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -19781,6 +19770,7 @@
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
+      <c r="J203" s="2"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -20617,6 +20607,10 @@
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="2"/>
@@ -20627,6 +20621,10 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="2"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="2"/>
@@ -20636,6 +20634,9 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20645,29 +20646,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E795EF4-D258-4F8A-8C85-9632E0AEB528}">
-  <dimension ref="A1:AC278"/>
+  <dimension ref="A1:AC279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
     <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.77734375" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="21" max="21" width="37.83203125" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -20818,7 +20819,7 @@
         <v>14</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -21800,7 +21801,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -21905,19 +21906,18 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="25.8">
+    <row r="27" spans="1:29" ht="26">
       <c r="A27" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="29"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="43">
+      <c r="G27" s="43">
         <f>COUNT(W8:W19)</f>
         <v>12</v>
       </c>
-      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="2"/>
@@ -21933,8 +21933,7 @@
       <c r="C28" s="25"/>
       <c r="D28" s="29"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="2"/>
@@ -21944,18 +21943,17 @@
       <c r="N28" s="3"/>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" spans="1:29" ht="25.8">
+    <row r="29" spans="1:29" ht="26">
       <c r="A29" s="42" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="43">
+      <c r="G29" s="43">
         <v>41</v>
       </c>
-      <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="2"/>
@@ -21964,45 +21962,48 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+    <row r="30" spans="1:29" ht="26">
+      <c r="A30" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48">
+        <f>(W8 + W10 + W12  + W14 + W15 + W17)/6</f>
+        <v>3.5879629629629629E-2</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="45">
-        <f xml:space="preserve"> (W8 + W10 + W12)/3</f>
-        <v>3.9120370370370375E-2</v>
-      </c>
+    <row r="31" spans="1:29" ht="26">
+      <c r="A31" s="45"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="45">
-        <f>(W14 + W15 + W17) / 3</f>
-        <v>3.2638888888888891E-2</v>
+    <row r="32" spans="1:29" ht="26">
+      <c r="A32" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48">
+        <f xml:space="preserve"> (W8 + W10 + W12)/3</f>
+        <v>3.9120370370370375E-2</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
@@ -22010,15 +22011,17 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="46" t="s">
-        <v>118</v>
+    <row r="33" spans="1:14" ht="26">
+      <c r="A33" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48">
+        <f>(W14 + W15 + W17) / 3</f>
+        <v>3.2638888888888891E-2</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -22026,16 +22029,16 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="45">
-        <f>(W8 + W14)/2</f>
-        <v>4.3055555555555555E-2</v>
+    <row r="34" spans="1:14" ht="26">
+      <c r="A34" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
@@ -22043,16 +22046,17 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="45">
-        <f>(W10+W15)/2</f>
-        <v>3.229166666666667E-2</v>
+    <row r="35" spans="1:14" ht="26">
+      <c r="A35" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48">
+        <f>(W8 + W14)/2</f>
+        <v>4.3055555555555555E-2</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
@@ -22060,15 +22064,16 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="45">
-        <f>(W12+W17)/2</f>
+    <row r="36" spans="1:14" ht="26">
+      <c r="A36" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48">
+        <f>(W10+W15)/2</f>
         <v>3.229166666666667E-2</v>
       </c>
       <c r="J36" s="2"/>
@@ -22077,28 +22082,31 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+    <row r="37" spans="1:14" ht="26">
+      <c r="A37" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48">
+        <f>(W12+W17)/2</f>
+        <v>3.229166666666667E-2</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="45">
-        <f>(W8 + W10 + W12  + W14 + W15 + W17)/6</f>
-        <v>3.5879629629629629E-2</v>
-      </c>
+    <row r="38" spans="1:14" ht="26">
+      <c r="A38" s="45"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="41"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -22106,11 +22114,6 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -24007,6 +24010,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
+      <c r="J197" s="2"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -24837,31 +24841,42 @@
       <c r="M272" s="3"/>
       <c r="N272" s="3"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:14">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:14">
       <c r="A275" s="2"/>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:14">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:14">
       <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NovosTestes.xlsx
+++ b/NovosTestes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234A97F-1B68-6A4D-BE3F-1E45FD9E6EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0DAA7-A21D-4A5E-810D-E0F59D972F47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
+    <workbookView xWindow="-23148" yWindow="-1296" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9266D7C5-1358-47E0-9573-E3ABA5B9D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapa1a" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Mapa2b" sheetId="11" r:id="rId4"/>
     <sheet name="Mapa3" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="133">
   <si>
     <t>Mapa 1a</t>
   </si>
@@ -404,6 +401,42 @@
   </si>
   <si>
     <t>Não foi encontrada nenhuma configuração que funcionase com uma função logaritmica para os dois sensores.</t>
+  </si>
+  <si>
+    <t>Devido à simplicidade do mapa, o ângulo entre os sensores ser 90 é suficiente e até proveitoso</t>
+  </si>
+  <si>
+    <t>A média da gaussiana não pode ser muito alta, se não a bola bate na parede</t>
+  </si>
+  <si>
+    <t>A força inicial é muito baixa e a bola mal se mexe</t>
+  </si>
+  <si>
+    <t>Menor média para a força ser maior quando a bola está mais longe do obstáculo</t>
+  </si>
+  <si>
+    <t>Limitar o Y para a bola não bater na parede</t>
+  </si>
+  <si>
+    <t>A bola fica presa numa parede</t>
+  </si>
+  <si>
+    <t>A bola vai a grande velocidade e a força do sensor de blocos não é suficiente para contrariar o seu movimento</t>
+  </si>
+  <si>
+    <t>Menor limite superior do Y para a bola não atingir velocidade tão altas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bola praticamente 2 voltas completas ao último recurso perdendo bastante tempo. </t>
+  </si>
+  <si>
+    <t>A bola praticamente 2 voltas completas ao último recurso perdendo bastante tempo.</t>
+  </si>
+  <si>
+    <t>Aumentar a intensidade do sensor de recursos para a bola completar o mapa mais rapidamente, mas bate nas paredes</t>
+  </si>
+  <si>
+    <t>A força da bola após apanhar um recurso é muito alta</t>
   </si>
 </sst>
 </file>
@@ -999,32 +1032,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48915A02-5BCF-40D7-ADBB-E4C89EB67C48}">
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="D5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.6640625" customWidth="1"/>
+    <col min="20" max="20" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="50.5" customWidth="1"/>
+    <col min="24" max="24" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1649,7 +1682,9 @@
       <c r="W14" s="3">
         <v>11</v>
       </c>
-      <c r="X14" s="22"/>
+      <c r="X14" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="10"/>
@@ -1713,7 +1748,9 @@
       <c r="W15" s="3">
         <v>16</v>
       </c>
-      <c r="X15" s="22"/>
+      <c r="X15" s="22" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="10"/>
@@ -1845,7 +1882,9 @@
       <c r="W17" s="3">
         <v>25</v>
       </c>
-      <c r="X17" s="22"/>
+      <c r="X17" s="22" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="10"/>
@@ -1909,7 +1948,9 @@
       <c r="W18" s="3">
         <v>7</v>
       </c>
-      <c r="X18" s="22"/>
+      <c r="X18" s="22" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="10"/>
@@ -1973,7 +2014,9 @@
       <c r="W19" s="18">
         <v>6</v>
       </c>
-      <c r="X19" s="22"/>
+      <c r="X19" s="22" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="10"/>
@@ -2169,7 +2212,9 @@
       <c r="W22" s="18">
         <v>6</v>
       </c>
-      <c r="X22" s="22"/>
+      <c r="X22" s="22" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="10"/>
@@ -2235,7 +2280,7 @@
       </c>
       <c r="X23" s="22"/>
     </row>
-    <row r="24" spans="1:24" ht="80">
+    <row r="24" spans="1:24" ht="90">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="96">
+    <row r="25" spans="1:24" ht="90">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
@@ -2513,7 +2558,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="26">
+    <row r="30" spans="1:24" ht="26.25">
       <c r="A30" s="40" t="s">
         <v>109</v>
       </c>
@@ -2558,7 +2603,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="26">
+    <row r="32" spans="1:24" ht="26.25">
       <c r="A32" s="40" t="s">
         <v>119</v>
       </c>
@@ -2582,7 +2627,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22" ht="26">
+    <row r="33" spans="1:22" ht="26.25">
       <c r="A33" s="45" t="s">
         <v>117</v>
       </c>
@@ -2607,7 +2652,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" ht="26">
+    <row r="34" spans="1:22" ht="26.25">
       <c r="A34" s="40"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -2628,7 +2673,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" ht="26">
+    <row r="35" spans="1:22" ht="26.25">
       <c r="A35" s="45" t="s">
         <v>110</v>
       </c>
@@ -2653,7 +2698,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" ht="26">
+    <row r="36" spans="1:22" ht="26.25">
       <c r="A36" s="45" t="s">
         <v>111</v>
       </c>
@@ -2678,7 +2723,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" ht="26">
+    <row r="37" spans="1:22" ht="26.25">
       <c r="A37" s="45" t="s">
         <v>112</v>
       </c>
@@ -2703,7 +2748,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22" ht="26">
+    <row r="38" spans="1:22" ht="26.25">
       <c r="A38" s="45" t="s">
         <v>113</v>
       </c>
@@ -2728,7 +2773,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22" ht="26">
+    <row r="39" spans="1:22" ht="26.25">
       <c r="A39" s="45" t="s">
         <v>114</v>
       </c>
@@ -2753,7 +2798,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" ht="26">
+    <row r="40" spans="1:22" ht="26.25">
       <c r="A40" s="45" t="s">
         <v>115</v>
       </c>
@@ -2778,7 +2823,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22" ht="26">
+    <row r="41" spans="1:22" ht="26.25">
       <c r="A41" s="45"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -2813,7 +2858,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" ht="26">
+    <row r="43" spans="1:22" ht="26.25">
       <c r="A43" s="45"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -7736,29 +7781,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23F7D2-EBE1-4007-8C0F-8BEE0171E58C}">
   <dimension ref="A1:AD292"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
-    <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" customWidth="1"/>
-    <col min="24" max="24" width="159.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" customWidth="1"/>
+    <col min="21" max="21" width="37.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="159.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -8558,6 +8603,9 @@
       <c r="W16" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="X16" s="34" t="s">
+        <v>126</v>
+      </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
@@ -8690,6 +8738,9 @@
       <c r="W18" s="17">
         <v>15</v>
       </c>
+      <c r="X18" s="34" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="10"/>
@@ -8817,7 +8868,9 @@
       <c r="W20" s="17">
         <v>17</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="10"/>
@@ -9205,7 +9258,9 @@
       <c r="W26" s="3">
         <v>18</v>
       </c>
-      <c r="X26" s="22"/>
+      <c r="X26" s="22" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="10" t="s">
@@ -9465,7 +9520,9 @@
       <c r="W30" s="3">
         <v>19</v>
       </c>
-      <c r="X30" s="22"/>
+      <c r="X30" s="22" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="11" t="s">
@@ -9537,7 +9594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="64">
+    <row r="32" spans="1:24" ht="60">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -9733,7 +9790,7 @@
       <c r="N36" s="3"/>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" spans="1:24" ht="26">
+    <row r="37" spans="1:24" ht="26.25">
       <c r="A37" s="40" t="s">
         <v>109</v>
       </c>
@@ -9766,7 +9823,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:24" ht="26">
+    <row r="39" spans="1:24" ht="26.25">
       <c r="A39" s="40" t="s">
         <v>119</v>
       </c>
@@ -9784,7 +9841,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:24" ht="26">
+    <row r="40" spans="1:24" ht="26.25">
       <c r="A40" s="45" t="s">
         <v>118</v>
       </c>
@@ -9804,7 +9861,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:24" ht="26">
+    <row r="41" spans="1:24" ht="26.25">
       <c r="A41" s="45"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -9819,7 +9876,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:24" ht="26">
+    <row r="42" spans="1:24" ht="26.25">
       <c r="A42" s="45" t="s">
         <v>110</v>
       </c>
@@ -9839,7 +9896,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:24" ht="26">
+    <row r="43" spans="1:24" ht="26.25">
       <c r="A43" s="45" t="s">
         <v>111</v>
       </c>
@@ -9859,7 +9916,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:24" ht="26">
+    <row r="44" spans="1:24" ht="26.25">
       <c r="A44" s="45" t="s">
         <v>112</v>
       </c>
@@ -9877,7 +9934,7 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:24" ht="26">
+    <row r="45" spans="1:24" ht="26.25">
       <c r="A45" s="45" t="s">
         <v>113</v>
       </c>
@@ -9895,7 +9952,7 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:24" ht="26">
+    <row r="46" spans="1:24" ht="26.25">
       <c r="A46" s="45" t="s">
         <v>114</v>
       </c>
@@ -9913,7 +9970,7 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="26">
+    <row r="47" spans="1:24" ht="26.25">
       <c r="A47" s="45" t="s">
         <v>115</v>
       </c>
@@ -9931,7 +9988,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:24" ht="26">
+    <row r="48" spans="1:24" ht="26.25">
       <c r="A48" s="45"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -12760,24 +12817,24 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="42" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="158.5" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="37.6640625" customWidth="1"/>
-    <col min="18" max="18" width="37.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="158.42578125" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -13171,7 +13228,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="26">
+    <row r="21" spans="1:13" ht="26.25">
       <c r="A21" s="40" t="s">
         <v>109</v>
       </c>
@@ -13203,7 +13260,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="26">
+    <row r="23" spans="1:13" ht="26.25">
       <c r="A23" s="40" t="s">
         <v>119</v>
       </c>
@@ -16127,27 +16184,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE4904D-A21F-43E7-AB1D-D8515408F75D}">
   <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
-    <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" customWidth="1"/>
+    <col min="21" max="21" width="37.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
     <col min="24" max="24" width="78" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16839,7 +16896,9 @@
       <c r="W15" s="3">
         <v>32</v>
       </c>
-      <c r="X15" s="22"/>
+      <c r="X15" s="22" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="10"/>
@@ -16970,6 +17029,9 @@
       <c r="W17" s="3">
         <v>34</v>
       </c>
+      <c r="X17" s="22" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="10"/>
@@ -17164,7 +17226,9 @@
       <c r="W20" s="3">
         <v>16</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="10"/>
@@ -17629,7 +17693,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="26">
+    <row r="30" spans="1:24" ht="26.25">
       <c r="A30" s="42" t="s">
         <v>109</v>
       </c>
@@ -17650,7 +17714,7 @@
       <c r="N30" s="3"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="26">
+    <row r="31" spans="1:24" ht="26.25">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -17666,7 +17730,7 @@
       <c r="N31" s="3"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="26">
+    <row r="32" spans="1:24" ht="26.25">
       <c r="A32" s="42" t="s">
         <v>119</v>
       </c>
@@ -17685,7 +17749,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="26">
+    <row r="33" spans="1:14" ht="26.25">
       <c r="A33" s="45" t="s">
         <v>118</v>
       </c>
@@ -17719,7 +17783,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="26">
+    <row r="35" spans="1:14" ht="26.25">
       <c r="A35" s="45" t="s">
         <v>110</v>
       </c>
@@ -17738,7 +17802,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="26">
+    <row r="36" spans="1:14" ht="26.25">
       <c r="A36" s="45" t="s">
         <v>111</v>
       </c>
@@ -17757,7 +17821,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="26">
+    <row r="37" spans="1:14" ht="26.25">
       <c r="A37" s="45" t="s">
         <v>112</v>
       </c>
@@ -17774,7 +17838,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="26">
+    <row r="38" spans="1:14" ht="26.25">
       <c r="A38" s="45" t="s">
         <v>113</v>
       </c>
@@ -17791,7 +17855,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="26">
+    <row r="39" spans="1:14" ht="26.25">
       <c r="A39" s="45" t="s">
         <v>114</v>
       </c>
@@ -17808,7 +17872,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="26">
+    <row r="40" spans="1:14" ht="26.25">
       <c r="A40" s="45" t="s">
         <v>115</v>
       </c>
@@ -17825,7 +17889,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="26">
+    <row r="41" spans="1:14" ht="26.25">
       <c r="A41" s="45"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -20648,27 +20712,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E795EF4-D258-4F8A-8C85-9632E0AEB528}">
   <dimension ref="A1:AC279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.1640625" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
-    <col min="20" max="20" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="37.83203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" customWidth="1"/>
+    <col min="21" max="21" width="37.85546875" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -21906,7 +21970,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="26">
+    <row r="27" spans="1:29" ht="26.25">
       <c r="A27" s="42" t="s">
         <v>109</v>
       </c>
@@ -21943,7 +22007,7 @@
       <c r="N28" s="3"/>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" spans="1:29" ht="26">
+    <row r="29" spans="1:29" ht="26.25">
       <c r="A29" s="42" t="s">
         <v>119</v>
       </c>
@@ -21962,7 +22026,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="26">
+    <row r="30" spans="1:29" ht="26.25">
       <c r="A30" s="45" t="s">
         <v>118</v>
       </c>
@@ -21980,7 +22044,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="26">
+    <row r="31" spans="1:29" ht="26.25">
       <c r="A31" s="45"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -21993,7 +22057,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="26">
+    <row r="32" spans="1:29" ht="26.25">
       <c r="A32" s="45" t="s">
         <v>110</v>
       </c>
@@ -22011,7 +22075,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="26">
+    <row r="33" spans="1:14" ht="26.25">
       <c r="A33" s="45" t="s">
         <v>111</v>
       </c>
@@ -22029,7 +22093,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="26">
+    <row r="34" spans="1:14" ht="26.25">
       <c r="A34" s="45" t="s">
         <v>112</v>
       </c>
@@ -22046,7 +22110,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="26">
+    <row r="35" spans="1:14" ht="26.25">
       <c r="A35" s="45" t="s">
         <v>113</v>
       </c>
@@ -22064,7 +22128,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="26">
+    <row r="36" spans="1:14" ht="26.25">
       <c r="A36" s="45" t="s">
         <v>114</v>
       </c>
@@ -22082,7 +22146,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="26">
+    <row r="37" spans="1:14" ht="26.25">
       <c r="A37" s="45" t="s">
         <v>115</v>
       </c>
@@ -22100,7 +22164,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="26">
+    <row r="38" spans="1:14" ht="26.25">
       <c r="A38" s="45"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
